--- a/deployment options.xlsx
+++ b/deployment options.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mule\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training-Repo\intsol\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7880248-5070-4D5B-9087-5127CDEAA2DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20895" windowHeight="8295"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Deployment Options</t>
   </si>
@@ -77,33 +78,15 @@
     <t>Container / Node</t>
   </si>
   <si>
-    <t xml:space="preserve">EC2 </t>
-  </si>
-  <si>
-    <t>K8 / DOCKER</t>
-  </si>
-  <si>
-    <t>Droplets</t>
-  </si>
-  <si>
-    <t>VM / Bare Metal</t>
-  </si>
-  <si>
     <t>iPaaS</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Zero Down Time Deployment</t>
   </si>
   <si>
     <t>DLB / SLB</t>
   </si>
   <si>
-    <t>manually provisioned</t>
-  </si>
-  <si>
     <t>Horizontal</t>
   </si>
   <si>
@@ -113,24 +96,6 @@
     <t>Scaling</t>
   </si>
   <si>
-    <t>. ++ workers</t>
-  </si>
-  <si>
-    <t>. ++ nodes</t>
-  </si>
-  <si>
-    <t>. ++ vcores</t>
-  </si>
-  <si>
-    <t>. ++ cores</t>
-  </si>
-  <si>
-    <t>yes / DLB</t>
-  </si>
-  <si>
-    <t>yes / SLB</t>
-  </si>
-  <si>
     <t>Object Store</t>
   </si>
   <si>
@@ -143,12 +108,6 @@
     <t>Service Based</t>
   </si>
   <si>
-    <t>in memory</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
     <t>Performant Configuration</t>
   </si>
   <si>
@@ -158,28 +117,13 @@
     <t>Hazle Cast</t>
   </si>
   <si>
-    <t>hazlecast</t>
-  </si>
-  <si>
-    <t>OS V2 Service / Dyn DB</t>
-  </si>
-  <si>
     <t>Vm Queus</t>
-  </si>
-  <si>
-    <t>Persistant Queue / SQS</t>
-  </si>
-  <si>
-    <t>etcd</t>
-  </si>
-  <si>
-    <t>cluster / hazlecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -554,12 +498,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K7" sqref="K7"/>
+      <selection pane="topRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,25 +536,25 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I1" s="11"/>
       <c r="J1" s="12" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="13" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
@@ -623,32 +567,32 @@
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -657,45 +601,9 @@
       <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -704,45 +612,9 @@
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -751,42 +623,9 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -795,39 +634,9 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -835,30 +644,6 @@
       </c>
       <c r="C7" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -873,58 +658,29 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -935,16 +691,16 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>41</v>
+      <c r="A16" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>42</v>
+      <c r="A17" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
